--- a/biology/Histoire de la zoologie et de la botanique/John_Thomas_Howell/John_Thomas_Howell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Thomas_Howell/John_Thomas_Howell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Thomas Howell (né le 6 novembre 1903[1], mort le 7 mai 1994[2]) est un botaniste américain, spécialiste des Eriogonum. Il fut l'assistant d'Alice Eastwood.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Thomas Howell (né le 6 novembre 1903, mort le 7 mai 1994) est un botaniste américain, spécialiste des Eriogonum. Il fut l'assistant d'Alice Eastwood.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">A Systematic Study of the Genus Lessingia Cham., « University of California Publications in Botany » (vol. 16, No.1), 1929
 Marin flora. Manual of the flowering plants and ferns of marin county, California, University of California Press, 1949
 A flora of San Francisco, California, (avec Peter H. Raven &amp; Peter Rubtzoff), University of San Francisco, 1958
 Saint Hilary's garden : a flora of old St. Hilary's Historic Preserve, Belvedere-Tiburon, Calif., Landmarks Society, 1972
 Howell est aussi l'éditeur des Leaflets of Western Botany, publiés à San Francisco de 1932 à 1966.
-Le genus Johanneshowellia (dont le nom vernaculaire anglais est Howell's buckwheat) de la famille des Polygonaceae porte son nom[3],[4].
+Le genus Johanneshowellia (dont le nom vernaculaire anglais est Howell's buckwheat) de la famille des Polygonaceae porte son nom,.
 </t>
         </is>
       </c>
